--- a/Complete-spreadsheets/EO/F3-list-EO.xlsx
+++ b/Complete-spreadsheets/EO/F3-list-EO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\EO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A2B47D-E350-449C-80D2-27FD3101D78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82149941-FCFC-4BB8-9FB8-03E57D841ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -147,6 +147,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,7 +512,7 @@
       <c r="F2" s="4">
         <v>2.8591967067836621</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>33.44450560660065</v>
       </c>
       <c r="H2">
@@ -534,23 +535,23 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3">
-        <v>7.1014643547901404</v>
-      </c>
-      <c r="C3" s="3">
-        <v>7.0570206032469356</v>
-      </c>
-      <c r="D3" s="3">
-        <v>5.2176182079177336</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.9025752279603538</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2.7961829611250129</v>
-      </c>
-      <c r="G3" s="3">
-        <v>25.07486135504017</v>
+      <c r="B3" s="4">
+        <v>7.2499889752024602</v>
+      </c>
+      <c r="C3" s="4">
+        <v>33.963738261858737</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3.9635811357356552</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.505940402524975</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3.04970861577302</v>
+      </c>
+      <c r="G3" s="5">
+        <v>50.732957391094857</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -559,10 +560,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>17</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
@@ -573,22 +574,22 @@
         <v>11</v>
       </c>
       <c r="B4" s="4">
-        <v>7.2499889752024602</v>
+        <v>9.4164439436343592</v>
       </c>
       <c r="C4" s="4">
-        <v>33.963738261858737</v>
+        <v>20.274048377780471</v>
       </c>
       <c r="D4" s="4">
-        <v>3.9635811357356552</v>
+        <v>5.4179085339747068</v>
       </c>
       <c r="E4" s="4">
-        <v>2.505940402524975</v>
+        <v>13.72432892781549</v>
       </c>
       <c r="F4" s="4">
-        <v>3.04970861577302</v>
-      </c>
-      <c r="G4" s="4">
-        <v>50.732957391094857</v>
+        <v>32.186458792053777</v>
+      </c>
+      <c r="G4" s="5">
+        <v>81.019188575258795</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -597,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
@@ -611,22 +612,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="4">
-        <v>9.4164439436343592</v>
+        <v>11.07093288596921</v>
       </c>
       <c r="C5" s="4">
-        <v>20.274048377780471</v>
+        <v>29.389589158945899</v>
       </c>
       <c r="D5" s="4">
-        <v>5.4179085339747068</v>
+        <v>5.9259868407754714</v>
       </c>
       <c r="E5" s="4">
-        <v>13.72432892781549</v>
+        <v>6.1123274142991066</v>
       </c>
       <c r="F5" s="4">
-        <v>32.186458792053777</v>
-      </c>
-      <c r="G5" s="4">
-        <v>81.019188575258795</v>
+        <v>9.3326733120411127</v>
+      </c>
+      <c r="G5" s="5">
+        <v>61.831509612030807</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -635,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -649,22 +650,22 @@
         <v>11</v>
       </c>
       <c r="B6" s="4">
-        <v>11.07093288596921</v>
+        <v>18.545200852731231</v>
       </c>
       <c r="C6" s="4">
-        <v>29.389589158945899</v>
+        <v>3.5090066182571129</v>
       </c>
       <c r="D6" s="4">
-        <v>5.9259868407754714</v>
+        <v>2.3317645416611921</v>
       </c>
       <c r="E6" s="4">
-        <v>6.1123274142991066</v>
+        <v>1.66571605846884</v>
       </c>
       <c r="F6" s="4">
-        <v>9.3326733120411127</v>
-      </c>
-      <c r="G6" s="4">
-        <v>61.831509612030807</v>
+        <v>1.9261799769518559</v>
+      </c>
+      <c r="G6" s="5">
+        <v>27.977868048070221</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -673,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -687,22 +688,22 @@
         <v>11</v>
       </c>
       <c r="B7" s="4">
-        <v>18.545200852731231</v>
+        <v>19.01608393267254</v>
       </c>
       <c r="C7" s="4">
-        <v>3.5090066182571129</v>
+        <v>18.063273590551269</v>
       </c>
       <c r="D7" s="4">
-        <v>2.3317645416611921</v>
+        <v>3.179977172126355</v>
       </c>
       <c r="E7" s="4">
-        <v>1.66571605846884</v>
+        <v>2.587512842227615</v>
       </c>
       <c r="F7" s="4">
-        <v>1.9261799769518559</v>
-      </c>
-      <c r="G7" s="4">
-        <v>27.977868048070221</v>
+        <v>3.0253642566089778</v>
+      </c>
+      <c r="G7" s="5">
+        <v>45.872211794186747</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -711,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -725,22 +726,22 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>19.01608393267254</v>
+        <v>20.9167622566201</v>
       </c>
       <c r="C8" s="4">
-        <v>18.063273590551269</v>
+        <v>5.8897467947283104</v>
       </c>
       <c r="D8" s="4">
-        <v>3.179977172126355</v>
+        <v>3.8362873055849769</v>
       </c>
       <c r="E8" s="4">
-        <v>2.587512842227615</v>
+        <v>2.9812800918191931</v>
       </c>
       <c r="F8" s="4">
-        <v>3.0253642566089778</v>
-      </c>
-      <c r="G8" s="4">
-        <v>45.872211794186747</v>
+        <v>3.7852587858148512</v>
+      </c>
+      <c r="G8" s="5">
+        <v>37.409335234567443</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -749,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -763,22 +764,22 @@
         <v>11</v>
       </c>
       <c r="B9" s="4">
-        <v>20.9167622566201</v>
+        <v>25.856461765696089</v>
       </c>
       <c r="C9" s="4">
-        <v>5.8897467947283104</v>
+        <v>9.7485236264731192</v>
       </c>
       <c r="D9" s="4">
-        <v>3.8362873055849769</v>
+        <v>6.272662199856434</v>
       </c>
       <c r="E9" s="4">
-        <v>2.9812800918191931</v>
+        <v>6.3699035524919774</v>
       </c>
       <c r="F9" s="4">
-        <v>3.7852587858148512</v>
-      </c>
-      <c r="G9" s="4">
-        <v>37.409335234567443</v>
+        <v>12.811001759946381</v>
+      </c>
+      <c r="G9" s="5">
+        <v>61.058552904464008</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -787,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -800,23 +801,23 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3">
-        <v>21.05584122300046</v>
-      </c>
-      <c r="C10" s="3">
-        <v>8.2009161950980811</v>
-      </c>
-      <c r="D10" s="3">
-        <v>6.9104508989174516</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5.6072857919062837</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3.028162437013882</v>
-      </c>
-      <c r="G10" s="3">
-        <v>44.802656545936138</v>
+      <c r="B10" s="4">
+        <v>32.019604691907404</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7.5743914205127094</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3.481785322927907</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.5514861415628021</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3.4093491938226581</v>
+      </c>
+      <c r="G10" s="5">
+        <v>51.03661677073346</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -825,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
@@ -838,23 +839,23 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
-        <v>24.568665974587681</v>
-      </c>
-      <c r="C11" s="3">
-        <v>10.021426120628281</v>
-      </c>
-      <c r="D11" s="3">
-        <v>8.1194652823228814</v>
-      </c>
-      <c r="E11" s="3">
-        <v>24.729649750494861</v>
-      </c>
-      <c r="F11" s="3">
-        <v>12.272642662364101</v>
-      </c>
-      <c r="G11" s="3">
-        <v>79.711849790397793</v>
+      <c r="B11" s="4">
+        <v>34.836734295802692</v>
+      </c>
+      <c r="C11" s="4">
+        <v>18.625505741744298</v>
+      </c>
+      <c r="D11" s="4">
+        <v>28.715301518210129</v>
+      </c>
+      <c r="E11" s="4">
+        <v>5.6604220132313223</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3.935215210309579</v>
+      </c>
+      <c r="G11" s="5">
+        <v>91.773178779298064</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -863,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
       </c>
       <c r="L11" t="s">
         <v>12</v>
@@ -877,22 +878,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>25.856461765696089</v>
+        <v>46.788722059511258</v>
       </c>
       <c r="C12" s="4">
-        <v>9.7485236264731192</v>
+        <v>16.817664786340941</v>
       </c>
       <c r="D12" s="4">
-        <v>6.272662199856434</v>
+        <v>5.6561946291919396</v>
       </c>
       <c r="E12" s="4">
-        <v>6.3699035524919774</v>
+        <v>4.3565455882173598</v>
       </c>
       <c r="F12" s="4">
-        <v>12.811001759946381</v>
-      </c>
-      <c r="G12" s="4">
-        <v>61.058552904464008</v>
+        <v>4.3206054837473662</v>
+      </c>
+      <c r="G12" s="5">
+        <v>77.939732547008873</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -901,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -914,23 +915,23 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
-        <v>30.405027340614708</v>
-      </c>
-      <c r="C13" s="3">
-        <v>17.98356822436115</v>
-      </c>
-      <c r="D13" s="3">
-        <v>24.975347367444559</v>
-      </c>
-      <c r="E13" s="3">
-        <v>13.359453017258151</v>
-      </c>
-      <c r="F13" s="3">
-        <v>8.252652572142761</v>
-      </c>
-      <c r="G13" s="3">
-        <v>94.976048521821326</v>
+      <c r="B13" s="4">
+        <v>48.595419593628847</v>
+      </c>
+      <c r="C13" s="4">
+        <v>125.99493091796781</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9.4963894978504886</v>
+      </c>
+      <c r="E13" s="4">
+        <v>6.3411665565943007</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4.6148597604279402</v>
+      </c>
+      <c r="G13" s="5">
+        <v>195.0427663264694</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -939,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>28</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
       </c>
       <c r="L13" t="s">
         <v>12</v>
@@ -953,22 +954,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="4">
-        <v>32.019604691907404</v>
+        <v>59.18702226324173</v>
       </c>
       <c r="C14" s="4">
-        <v>7.5743914205127094</v>
+        <v>23.71509921756196</v>
       </c>
       <c r="D14" s="4">
-        <v>3.481785322927907</v>
+        <v>6.8045580041998353</v>
       </c>
       <c r="E14" s="4">
-        <v>4.5514861415628021</v>
+        <v>4.5717358916443658</v>
       </c>
       <c r="F14" s="4">
-        <v>3.4093491938226581</v>
-      </c>
-      <c r="G14" s="4">
-        <v>51.03661677073346</v>
+        <v>6.5597581520766379</v>
+      </c>
+      <c r="G14" s="5">
+        <v>100.8381735287245</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -977,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -990,23 +991,23 @@
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3">
-        <v>32.02723363058697</v>
-      </c>
-      <c r="C15" s="3">
-        <v>6.9269646634922371</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3.6219843287375388</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3.0679022863275822</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2.8725223053657229</v>
-      </c>
-      <c r="G15" s="3">
-        <v>48.516607214510039</v>
+      <c r="B15" s="4">
+        <v>64.648352503607256</v>
+      </c>
+      <c r="C15" s="4">
+        <v>13.461301450437549</v>
+      </c>
+      <c r="D15" s="4">
+        <v>16.44189652175773</v>
+      </c>
+      <c r="E15" s="4">
+        <v>6.259058314465034</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2.890920044542332</v>
+      </c>
+      <c r="G15" s="5">
+        <v>103.70152883480991</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1015,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>19</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
       </c>
       <c r="L15" t="s">
         <v>12</v>
@@ -1029,22 +1030,22 @@
         <v>11</v>
       </c>
       <c r="B16" s="4">
-        <v>34.836734295802692</v>
+        <v>70.169975700814774</v>
       </c>
       <c r="C16" s="4">
-        <v>18.625505741744298</v>
+        <v>12.20993944914834</v>
       </c>
       <c r="D16" s="4">
-        <v>28.715301518210129</v>
+        <v>8.2735119846047347</v>
       </c>
       <c r="E16" s="4">
-        <v>5.6604220132313223</v>
+        <v>7.9010163858953506</v>
       </c>
       <c r="F16" s="4">
-        <v>3.935215210309579</v>
-      </c>
-      <c r="G16" s="4">
-        <v>91.773178779298064</v>
+        <v>7.7220249326030812</v>
+      </c>
+      <c r="G16" s="5">
+        <v>106.2764684530663</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1053,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -1066,23 +1067,23 @@
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="3">
-        <v>38.023054789676038</v>
-      </c>
-      <c r="C17" s="3">
-        <v>13.73735210312422</v>
-      </c>
-      <c r="D17" s="3">
-        <v>7.3755058511596534</v>
-      </c>
-      <c r="E17" s="3">
-        <v>10.9374593232703</v>
-      </c>
-      <c r="F17" s="3">
-        <v>9.9172855320008857</v>
-      </c>
-      <c r="G17" s="3">
-        <v>79.990657599231099</v>
+      <c r="B17" s="4">
+        <v>70.404680583626458</v>
+      </c>
+      <c r="C17" s="4">
+        <v>28.808555254381229</v>
+      </c>
+      <c r="D17" s="4">
+        <v>56.490588416416529</v>
+      </c>
+      <c r="E17" s="4">
+        <v>23.430932841242129</v>
+      </c>
+      <c r="F17" s="4">
+        <v>23.190726164354889</v>
+      </c>
+      <c r="G17" s="5">
+        <v>202.3254832600212</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1091,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>26</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
       </c>
       <c r="L17" t="s">
         <v>12</v>
@@ -1104,23 +1105,23 @@
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="3">
-        <v>42.043753270365578</v>
-      </c>
-      <c r="C18" s="3">
-        <v>37.469409189742557</v>
-      </c>
-      <c r="D18" s="3">
-        <v>14.762288410824301</v>
-      </c>
-      <c r="E18" s="3">
-        <v>11.43532639587726</v>
-      </c>
-      <c r="F18" s="3">
-        <v>20.984203379410321</v>
-      </c>
-      <c r="G18" s="3">
-        <v>126.69498064622</v>
+      <c r="B18" s="4">
+        <v>73.313498056735895</v>
+      </c>
+      <c r="C18" s="4">
+        <v>17.35949165074598</v>
+      </c>
+      <c r="D18" s="4">
+        <v>12.77636314961925</v>
+      </c>
+      <c r="E18" s="4">
+        <v>12.42562885780259</v>
+      </c>
+      <c r="F18" s="4">
+        <v>18.25949070593639</v>
+      </c>
+      <c r="G18" s="5">
+        <v>134.1344724208401</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1129,10 +1130,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>27</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
       </c>
       <c r="L18" t="s">
         <v>12</v>
@@ -1142,23 +1143,23 @@
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="3">
-        <v>46.180510703871079</v>
-      </c>
-      <c r="C19" s="3">
-        <v>11.25999092135485</v>
-      </c>
-      <c r="D19" s="3">
-        <v>4.8264683145933809</v>
-      </c>
-      <c r="E19" s="3">
-        <v>6.0173827607743862</v>
-      </c>
-      <c r="F19" s="3">
-        <v>6.5317830367794274</v>
-      </c>
-      <c r="G19" s="3">
-        <v>74.816135737373116</v>
+      <c r="B19" s="4">
+        <v>80.318083303213058</v>
+      </c>
+      <c r="C19" s="4">
+        <v>14.017973147610769</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3.7518308172853341</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2.918412519407827</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2.504159530005269</v>
+      </c>
+      <c r="G19" s="5">
+        <v>103.5104593175223</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1167,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
       </c>
       <c r="L19" t="s">
         <v>12</v>
@@ -1180,23 +1181,23 @@
       <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="3">
-        <v>46.376945305535607</v>
-      </c>
-      <c r="C20" s="3">
-        <v>18.653234496852839</v>
-      </c>
-      <c r="D20" s="3">
-        <v>25.59523107332647</v>
-      </c>
-      <c r="E20" s="3">
-        <v>13.37412196631097</v>
-      </c>
-      <c r="F20" s="3">
-        <v>11.1483084779642</v>
-      </c>
-      <c r="G20" s="3">
-        <v>115.14784131999011</v>
+      <c r="B20" s="4">
+        <v>87.1420942199194</v>
+      </c>
+      <c r="C20" s="4">
+        <v>14.77978443189137</v>
+      </c>
+      <c r="D20" s="4">
+        <v>6.4974481229873664</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3.061129125079447</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3.286149044132832</v>
+      </c>
+      <c r="G20" s="5">
+        <v>114.7666049440104</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1205,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>12</v>
@@ -1219,22 +1220,22 @@
         <v>11</v>
       </c>
       <c r="B21" s="4">
-        <v>46.788722059511258</v>
+        <v>147.29558812805399</v>
       </c>
       <c r="C21" s="4">
-        <v>16.817664786340941</v>
+        <v>19.061077960631039</v>
       </c>
       <c r="D21" s="4">
-        <v>5.6561946291919396</v>
+        <v>13.50394444836347</v>
       </c>
       <c r="E21" s="4">
-        <v>4.3565455882173598</v>
+        <v>5.0953695374811518</v>
       </c>
       <c r="F21" s="4">
-        <v>4.3206054837473662</v>
-      </c>
-      <c r="G21" s="4">
-        <v>77.939732547008873</v>
+        <v>3.41116354291553</v>
+      </c>
+      <c r="G21" s="5">
+        <v>188.36714361744529</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1243,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -1257,22 +1258,22 @@
         <v>11</v>
       </c>
       <c r="B22" s="4">
-        <v>48.595419593628847</v>
+        <v>152.6141085417116</v>
       </c>
       <c r="C22" s="4">
-        <v>125.99493091796781</v>
+        <v>43.837199594873447</v>
       </c>
       <c r="D22" s="4">
-        <v>9.4963894978504886</v>
+        <v>7.5344964545998439</v>
       </c>
       <c r="E22" s="4">
-        <v>6.3411665565943007</v>
+        <v>8.7152091109493188</v>
       </c>
       <c r="F22" s="4">
-        <v>4.6148597604279402</v>
-      </c>
-      <c r="G22" s="4">
-        <v>195.0427663264694</v>
+        <v>8.8408079325158138</v>
+      </c>
+      <c r="G22" s="5">
+        <v>221.54182163465001</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1281,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -1294,23 +1295,23 @@
       <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="3">
-        <v>54.594060464891477</v>
-      </c>
-      <c r="C23" s="3">
-        <v>30.795114500462919</v>
-      </c>
-      <c r="D23" s="3">
-        <v>13.5523093076287</v>
-      </c>
-      <c r="E23" s="3">
-        <v>6.2575849145730418</v>
-      </c>
-      <c r="F23" s="3">
-        <v>3.7008009843875822</v>
-      </c>
-      <c r="G23" s="3">
-        <v>108.8998701719437</v>
+      <c r="B23" s="4">
+        <v>166.7389113450798</v>
+      </c>
+      <c r="C23" s="4">
+        <v>13.773983803347321</v>
+      </c>
+      <c r="D23" s="4">
+        <v>10.3094993772664</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3.656397091485255</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2.5267961364572291</v>
+      </c>
+      <c r="G23" s="5">
+        <v>197.00558775363609</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1319,10 +1320,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
       </c>
       <c r="L23" t="s">
         <v>12</v>
@@ -1332,23 +1333,23 @@
       <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="3">
-        <v>55.407450976842803</v>
-      </c>
-      <c r="C24" s="3">
-        <v>37.711815604168542</v>
-      </c>
-      <c r="D24" s="3">
-        <v>29.84420582515104</v>
-      </c>
-      <c r="E24" s="3">
-        <v>24.25073807054487</v>
-      </c>
-      <c r="F24" s="3">
-        <v>16.73049070195669</v>
-      </c>
-      <c r="G24" s="3">
-        <v>163.94470117866391</v>
+      <c r="B24" s="4">
+        <v>184.63138089450541</v>
+      </c>
+      <c r="C24" s="4">
+        <v>37.684182434630017</v>
+      </c>
+      <c r="D24" s="4">
+        <v>20.40537587904457</v>
+      </c>
+      <c r="E24" s="4">
+        <v>19.536153645786879</v>
+      </c>
+      <c r="F24" s="4">
+        <v>12.034899863123581</v>
+      </c>
+      <c r="G24" s="5">
+        <v>274.2919927170903</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1357,10 +1358,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>15</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
       </c>
       <c r="L24" t="s">
         <v>12</v>
@@ -1371,22 +1372,22 @@
         <v>11</v>
       </c>
       <c r="B25" s="3">
-        <v>58.474410227069683</v>
+        <v>7.1014643547901404</v>
       </c>
       <c r="C25" s="3">
-        <v>21.050332171275439</v>
+        <v>7.0570206032469356</v>
       </c>
       <c r="D25" s="3">
-        <v>4.8664001817884888</v>
+        <v>5.2176182079177336</v>
       </c>
       <c r="E25" s="3">
-        <v>2.199052629497896</v>
+        <v>2.9025752279603538</v>
       </c>
       <c r="F25" s="3">
-        <v>1.1143634069051569</v>
-      </c>
-      <c r="G25" s="3">
-        <v>87.704558616536659</v>
+        <v>2.7961829611250129</v>
+      </c>
+      <c r="G25" s="5">
+        <v>25.07486135504017</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1395,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K25" s="3">
         <v>1</v>
@@ -1408,23 +1409,23 @@
       <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="4">
-        <v>59.18702226324173</v>
-      </c>
-      <c r="C26" s="4">
-        <v>23.71509921756196</v>
-      </c>
-      <c r="D26" s="4">
-        <v>6.8045580041998353</v>
-      </c>
-      <c r="E26" s="4">
-        <v>4.5717358916443658</v>
-      </c>
-      <c r="F26" s="4">
-        <v>6.5597581520766379</v>
-      </c>
-      <c r="G26" s="4">
-        <v>100.8381735287245</v>
+      <c r="B26" s="3">
+        <v>21.05584122300046</v>
+      </c>
+      <c r="C26" s="3">
+        <v>8.2009161950980811</v>
+      </c>
+      <c r="D26" s="3">
+        <v>6.9104508989174516</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5.6072857919062837</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3.028162437013882</v>
+      </c>
+      <c r="G26" s="5">
+        <v>44.802656545936138</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1433,10 +1434,10 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>14</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
       </c>
       <c r="L26" t="s">
         <v>12</v>
@@ -1446,23 +1447,23 @@
       <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="4">
-        <v>64.648352503607256</v>
-      </c>
-      <c r="C27" s="4">
-        <v>13.461301450437549</v>
-      </c>
-      <c r="D27" s="4">
-        <v>16.44189652175773</v>
-      </c>
-      <c r="E27" s="4">
-        <v>6.259058314465034</v>
-      </c>
-      <c r="F27" s="4">
-        <v>2.890920044542332</v>
-      </c>
-      <c r="G27" s="4">
-        <v>103.70152883480991</v>
+      <c r="B27" s="3">
+        <v>24.568665974587681</v>
+      </c>
+      <c r="C27" s="3">
+        <v>10.021426120628281</v>
+      </c>
+      <c r="D27" s="3">
+        <v>8.1194652823228814</v>
+      </c>
+      <c r="E27" s="3">
+        <v>24.729649750494861</v>
+      </c>
+      <c r="F27" s="3">
+        <v>12.272642662364101</v>
+      </c>
+      <c r="G27" s="5">
+        <v>79.711849790397793</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1471,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>12</v>
@@ -1484,23 +1485,23 @@
       <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="4">
-        <v>70.169975700814774</v>
-      </c>
-      <c r="C28" s="4">
-        <v>12.20993944914834</v>
-      </c>
-      <c r="D28" s="4">
-        <v>8.2735119846047347</v>
-      </c>
-      <c r="E28" s="4">
-        <v>7.9010163858953506</v>
-      </c>
-      <c r="F28" s="4">
-        <v>7.7220249326030812</v>
-      </c>
-      <c r="G28" s="4">
-        <v>106.2764684530663</v>
+      <c r="B28" s="3">
+        <v>30.405027340614708</v>
+      </c>
+      <c r="C28" s="3">
+        <v>17.98356822436115</v>
+      </c>
+      <c r="D28" s="3">
+        <v>24.975347367444559</v>
+      </c>
+      <c r="E28" s="3">
+        <v>13.359453017258151</v>
+      </c>
+      <c r="F28" s="3">
+        <v>8.252652572142761</v>
+      </c>
+      <c r="G28" s="5">
+        <v>94.976048521821326</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1509,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
       </c>
       <c r="L28" t="s">
         <v>12</v>
@@ -1522,23 +1523,23 @@
       <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="4">
-        <v>70.404680583626458</v>
-      </c>
-      <c r="C29" s="4">
-        <v>28.808555254381229</v>
-      </c>
-      <c r="D29" s="4">
-        <v>56.490588416416529</v>
-      </c>
-      <c r="E29" s="4">
-        <v>23.430932841242129</v>
-      </c>
-      <c r="F29" s="4">
-        <v>23.190726164354889</v>
-      </c>
-      <c r="G29" s="4">
-        <v>202.3254832600212</v>
+      <c r="B29" s="3">
+        <v>32.02723363058697</v>
+      </c>
+      <c r="C29" s="3">
+        <v>6.9269646634922371</v>
+      </c>
+      <c r="D29" s="3">
+        <v>3.6219843287375388</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3.0679022863275822</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2.8725223053657229</v>
+      </c>
+      <c r="G29" s="5">
+        <v>48.516607214510039</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1547,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>20</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>12</v>
@@ -1560,23 +1561,23 @@
       <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="4">
-        <v>73.313498056735895</v>
-      </c>
-      <c r="C30" s="4">
-        <v>17.35949165074598</v>
-      </c>
-      <c r="D30" s="4">
-        <v>12.77636314961925</v>
-      </c>
-      <c r="E30" s="4">
-        <v>12.42562885780259</v>
-      </c>
-      <c r="F30" s="4">
-        <v>18.25949070593639</v>
-      </c>
-      <c r="G30" s="4">
-        <v>134.1344724208401</v>
+      <c r="B30" s="3">
+        <v>38.023054789676038</v>
+      </c>
+      <c r="C30" s="3">
+        <v>13.73735210312422</v>
+      </c>
+      <c r="D30" s="3">
+        <v>7.3755058511596534</v>
+      </c>
+      <c r="E30" s="3">
+        <v>10.9374593232703</v>
+      </c>
+      <c r="F30" s="3">
+        <v>9.9172855320008857</v>
+      </c>
+      <c r="G30" s="5">
+        <v>79.990657599231099</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1585,10 +1586,10 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>5</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
       </c>
       <c r="L30" t="s">
         <v>12</v>
@@ -1598,23 +1599,23 @@
       <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="4">
-        <v>80.318083303213058</v>
-      </c>
-      <c r="C31" s="4">
-        <v>14.017973147610769</v>
-      </c>
-      <c r="D31" s="4">
-        <v>3.7518308172853341</v>
-      </c>
-      <c r="E31" s="4">
-        <v>2.918412519407827</v>
-      </c>
-      <c r="F31" s="4">
-        <v>2.504159530005269</v>
-      </c>
-      <c r="G31" s="4">
-        <v>103.5104593175223</v>
+      <c r="B31" s="3">
+        <v>42.043753270365578</v>
+      </c>
+      <c r="C31" s="3">
+        <v>37.469409189742557</v>
+      </c>
+      <c r="D31" s="3">
+        <v>14.762288410824301</v>
+      </c>
+      <c r="E31" s="3">
+        <v>11.43532639587726</v>
+      </c>
+      <c r="F31" s="3">
+        <v>20.984203379410321</v>
+      </c>
+      <c r="G31" s="5">
+        <v>126.69498064622</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1623,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>16</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
       </c>
       <c r="L31" t="s">
         <v>12</v>
@@ -1637,22 +1638,22 @@
         <v>11</v>
       </c>
       <c r="B32" s="3">
-        <v>83.15782538806819</v>
+        <v>46.180510703871079</v>
       </c>
       <c r="C32" s="3">
-        <v>22.308383291854401</v>
+        <v>11.25999092135485</v>
       </c>
       <c r="D32" s="3">
-        <v>4.6310989206127724</v>
+        <v>4.8264683145933809</v>
       </c>
       <c r="E32" s="3">
-        <v>3.3848079504366528</v>
+        <v>6.0173827607743862</v>
       </c>
       <c r="F32" s="3">
-        <v>3.6977010422816501</v>
-      </c>
-      <c r="G32" s="3">
-        <v>117.1798165932537</v>
+        <v>6.5317830367794274</v>
+      </c>
+      <c r="G32" s="5">
+        <v>74.816135737373116</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1661,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K32" s="3">
         <v>1</v>
@@ -1674,23 +1675,23 @@
       <c r="A33" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="4">
-        <v>87.1420942199194</v>
-      </c>
-      <c r="C33" s="4">
-        <v>14.77978443189137</v>
-      </c>
-      <c r="D33" s="4">
-        <v>6.4974481229873664</v>
-      </c>
-      <c r="E33" s="4">
-        <v>3.061129125079447</v>
-      </c>
-      <c r="F33" s="4">
-        <v>3.286149044132832</v>
-      </c>
-      <c r="G33" s="4">
-        <v>114.7666049440104</v>
+      <c r="B33" s="3">
+        <v>46.376945305535607</v>
+      </c>
+      <c r="C33" s="3">
+        <v>18.653234496852839</v>
+      </c>
+      <c r="D33" s="3">
+        <v>25.59523107332647</v>
+      </c>
+      <c r="E33" s="3">
+        <v>13.37412196631097</v>
+      </c>
+      <c r="F33" s="3">
+        <v>11.1483084779642</v>
+      </c>
+      <c r="G33" s="5">
+        <v>115.14784131999011</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1699,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
       </c>
       <c r="L33" t="s">
         <v>12</v>
@@ -1713,22 +1714,22 @@
         <v>11</v>
       </c>
       <c r="B34" s="3">
-        <v>95.416197231802983</v>
+        <v>54.594060464891477</v>
       </c>
       <c r="C34" s="3">
-        <v>28.89526964845232</v>
+        <v>30.795114500462919</v>
       </c>
       <c r="D34" s="3">
-        <v>14.02293459251595</v>
+        <v>13.5523093076287</v>
       </c>
       <c r="E34" s="3">
-        <v>13.01356997791726</v>
+        <v>6.2575849145730418</v>
       </c>
       <c r="F34" s="3">
-        <v>5.3010428587259861</v>
-      </c>
-      <c r="G34" s="3">
-        <v>156.6490143094145</v>
+        <v>3.7008009843875822</v>
+      </c>
+      <c r="G34" s="5">
+        <v>108.8998701719437</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1737,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="K34" s="3">
         <v>1</v>
@@ -1751,22 +1752,22 @@
         <v>11</v>
       </c>
       <c r="B35" s="3">
-        <v>105.88281981495091</v>
+        <v>55.407450976842803</v>
       </c>
       <c r="C35" s="3">
-        <v>30.63553091011509</v>
+        <v>37.711815604168542</v>
       </c>
       <c r="D35" s="3">
-        <v>10.379006526702851</v>
+        <v>29.84420582515104</v>
       </c>
       <c r="E35" s="3">
-        <v>3.4606796165653142</v>
+        <v>24.25073807054487</v>
       </c>
       <c r="F35" s="3">
-        <v>2.058876261333447</v>
-      </c>
-      <c r="G35" s="3">
-        <v>152.41691312966759</v>
+        <v>16.73049070195669</v>
+      </c>
+      <c r="G35" s="5">
+        <v>163.94470117866391</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1775,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K35" s="3">
         <v>1</v>
@@ -1789,22 +1790,22 @@
         <v>11</v>
       </c>
       <c r="B36" s="3">
-        <v>121.546107093449</v>
+        <v>58.474410227069683</v>
       </c>
       <c r="C36" s="3">
-        <v>17.259817482442401</v>
+        <v>21.050332171275439</v>
       </c>
       <c r="D36" s="3">
-        <v>18.233136811583599</v>
+        <v>4.8664001817884888</v>
       </c>
       <c r="E36" s="3">
-        <v>22.728376217995351</v>
+        <v>2.199052629497896</v>
       </c>
       <c r="F36" s="3">
-        <v>25.17069831431975</v>
-      </c>
-      <c r="G36" s="3">
-        <v>204.93813591979011</v>
+        <v>1.1143634069051569</v>
+      </c>
+      <c r="G36" s="5">
+        <v>87.704558616536659</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1813,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K36" s="3">
         <v>1</v>
@@ -1827,22 +1828,22 @@
         <v>11</v>
       </c>
       <c r="B37" s="3">
-        <v>122.0817075054409</v>
+        <v>83.15782538806819</v>
       </c>
       <c r="C37" s="3">
-        <v>26.48986766415376</v>
+        <v>22.308383291854401</v>
       </c>
       <c r="D37" s="3">
-        <v>12.98769474048923</v>
+        <v>4.6310989206127724</v>
       </c>
       <c r="E37" s="3">
-        <v>17.615919670611511</v>
+        <v>3.3848079504366528</v>
       </c>
       <c r="F37" s="3">
-        <v>28.321539479143912</v>
-      </c>
-      <c r="G37" s="3">
-        <v>207.4967290598394</v>
+        <v>3.6977010422816501</v>
+      </c>
+      <c r="G37" s="5">
+        <v>117.1798165932537</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1851,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K37" s="3">
         <v>1</v>
@@ -1865,22 +1866,22 @@
         <v>11</v>
       </c>
       <c r="B38" s="3">
-        <v>128.60664090352631</v>
+        <v>95.416197231802983</v>
       </c>
       <c r="C38" s="3">
-        <v>23.192502061811311</v>
+        <v>28.89526964845232</v>
       </c>
       <c r="D38" s="3">
-        <v>5.864501666276202</v>
+        <v>14.02293459251595</v>
       </c>
       <c r="E38" s="3">
-        <v>13.38263718119649</v>
+        <v>13.01356997791726</v>
       </c>
       <c r="F38" s="3">
-        <v>14.547185283070711</v>
-      </c>
-      <c r="G38" s="3">
-        <v>185.59346709588101</v>
+        <v>5.3010428587259861</v>
+      </c>
+      <c r="G38" s="5">
+        <v>156.6490143094145</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1889,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="K38" s="3">
         <v>1</v>
@@ -1902,23 +1903,23 @@
       <c r="A39" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="4">
-        <v>147.29558812805399</v>
-      </c>
-      <c r="C39" s="4">
-        <v>19.061077960631039</v>
-      </c>
-      <c r="D39" s="4">
-        <v>13.50394444836347</v>
-      </c>
-      <c r="E39" s="4">
-        <v>5.0953695374811518</v>
-      </c>
-      <c r="F39" s="4">
-        <v>3.41116354291553</v>
-      </c>
-      <c r="G39" s="4">
-        <v>188.36714361744529</v>
+      <c r="B39" s="3">
+        <v>105.88281981495091</v>
+      </c>
+      <c r="C39" s="3">
+        <v>30.63553091011509</v>
+      </c>
+      <c r="D39" s="3">
+        <v>10.379006526702851</v>
+      </c>
+      <c r="E39" s="3">
+        <v>3.4606796165653142</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2.058876261333447</v>
+      </c>
+      <c r="G39" s="5">
+        <v>152.41691312966759</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1927,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>2</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1</v>
       </c>
       <c r="L39" t="s">
         <v>12</v>
@@ -1940,23 +1941,23 @@
       <c r="A40" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="4">
-        <v>152.6141085417116</v>
-      </c>
-      <c r="C40" s="4">
-        <v>43.837199594873447</v>
-      </c>
-      <c r="D40" s="4">
-        <v>7.5344964545998439</v>
-      </c>
-      <c r="E40" s="4">
-        <v>8.7152091109493188</v>
-      </c>
-      <c r="F40" s="4">
-        <v>8.8408079325158138</v>
-      </c>
-      <c r="G40" s="4">
-        <v>221.54182163465001</v>
+      <c r="B40" s="3">
+        <v>121.546107093449</v>
+      </c>
+      <c r="C40" s="3">
+        <v>17.259817482442401</v>
+      </c>
+      <c r="D40" s="3">
+        <v>18.233136811583599</v>
+      </c>
+      <c r="E40" s="3">
+        <v>22.728376217995351</v>
+      </c>
+      <c r="F40" s="3">
+        <v>25.17069831431975</v>
+      </c>
+      <c r="G40" s="5">
+        <v>204.93813591979011</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1965,10 +1966,10 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>19</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1</v>
       </c>
       <c r="L40" t="s">
         <v>12</v>
@@ -1979,22 +1980,22 @@
         <v>11</v>
       </c>
       <c r="B41" s="3">
-        <v>161.06666953465449</v>
+        <v>122.0817075054409</v>
       </c>
       <c r="C41" s="3">
-        <v>36.087957067190352</v>
+        <v>26.48986766415376</v>
       </c>
       <c r="D41" s="3">
-        <v>14.738736510620191</v>
+        <v>12.98769474048923</v>
       </c>
       <c r="E41" s="3">
-        <v>14.61730779487063</v>
+        <v>17.615919670611511</v>
       </c>
       <c r="F41" s="3">
-        <v>26.529800106111381</v>
-      </c>
-      <c r="G41" s="3">
-        <v>253.04047101344699</v>
+        <v>28.321539479143912</v>
+      </c>
+      <c r="G41" s="5">
+        <v>207.4967290598394</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2003,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K41" s="3">
         <v>1</v>
@@ -2016,23 +2017,23 @@
       <c r="A42" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="4">
-        <v>166.7389113450798</v>
-      </c>
-      <c r="C42" s="4">
-        <v>13.773983803347321</v>
-      </c>
-      <c r="D42" s="4">
-        <v>10.3094993772664</v>
-      </c>
-      <c r="E42" s="4">
-        <v>3.656397091485255</v>
-      </c>
-      <c r="F42" s="4">
-        <v>2.5267961364572291</v>
-      </c>
-      <c r="G42" s="4">
-        <v>197.00558775363609</v>
+      <c r="B42" s="3">
+        <v>128.60664090352631</v>
+      </c>
+      <c r="C42" s="3">
+        <v>23.192502061811311</v>
+      </c>
+      <c r="D42" s="3">
+        <v>5.864501666276202</v>
+      </c>
+      <c r="E42" s="3">
+        <v>13.38263718119649</v>
+      </c>
+      <c r="F42" s="3">
+        <v>14.547185283070711</v>
+      </c>
+      <c r="G42" s="5">
+        <v>185.59346709588101</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2041,10 +2042,10 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>22</v>
-      </c>
-      <c r="K42" s="4">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1</v>
       </c>
       <c r="L42" t="s">
         <v>12</v>
@@ -2055,22 +2056,22 @@
         <v>11</v>
       </c>
       <c r="B43" s="3">
-        <v>167.1696054906393</v>
+        <v>161.06666953465449</v>
       </c>
       <c r="C43" s="3">
-        <v>46.682978744682877</v>
+        <v>36.087957067190352</v>
       </c>
       <c r="D43" s="3">
-        <v>10.52614589083031</v>
+        <v>14.738736510620191</v>
       </c>
       <c r="E43" s="3">
-        <v>6.9262257044326541</v>
+        <v>14.61730779487063</v>
       </c>
       <c r="F43" s="3">
-        <v>6.5111185939063692</v>
-      </c>
-      <c r="G43" s="3">
-        <v>237.81607442449149</v>
+        <v>26.529800106111381</v>
+      </c>
+      <c r="G43" s="5">
+        <v>253.04047101344699</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2079,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K43" s="3">
         <v>1</v>
@@ -2093,22 +2094,22 @@
         <v>11</v>
       </c>
       <c r="B44" s="3">
-        <v>174.75156563043399</v>
+        <v>167.1696054906393</v>
       </c>
       <c r="C44" s="3">
-        <v>81.066935640875514</v>
+        <v>46.682978744682877</v>
       </c>
       <c r="D44" s="3">
-        <v>58.979090813624289</v>
+        <v>10.52614589083031</v>
       </c>
       <c r="E44" s="3">
-        <v>72.966641856536214</v>
+        <v>6.9262257044326541</v>
       </c>
       <c r="F44" s="3">
-        <v>38.385345221913227</v>
-      </c>
-      <c r="G44" s="3">
-        <v>426.14957916338341</v>
+        <v>6.5111185939063692</v>
+      </c>
+      <c r="G44" s="5">
+        <v>237.81607442449149</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2117,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
@@ -2131,22 +2132,22 @@
         <v>11</v>
       </c>
       <c r="B45" s="3">
-        <v>178.82810557431139</v>
+        <v>174.75156563043399</v>
       </c>
       <c r="C45" s="3">
-        <v>73.22459727099087</v>
+        <v>81.066935640875514</v>
       </c>
       <c r="D45" s="3">
-        <v>32.69465485651773</v>
+        <v>58.979090813624289</v>
       </c>
       <c r="E45" s="3">
-        <v>73.538085928013913</v>
+        <v>72.966641856536214</v>
       </c>
       <c r="F45" s="3">
-        <v>164.8984532662767</v>
-      </c>
-      <c r="G45" s="3">
-        <v>523.18389689611058</v>
+        <v>38.385345221913227</v>
+      </c>
+      <c r="G45" s="5">
+        <v>426.14957916338341</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2155,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K45" s="3">
         <v>1</v>
@@ -2168,23 +2169,23 @@
       <c r="A46" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="4">
-        <v>184.63138089450541</v>
-      </c>
-      <c r="C46" s="4">
-        <v>37.684182434630017</v>
-      </c>
-      <c r="D46" s="4">
-        <v>20.40537587904457</v>
-      </c>
-      <c r="E46" s="4">
-        <v>19.536153645786879</v>
-      </c>
-      <c r="F46" s="4">
-        <v>12.034899863123581</v>
-      </c>
-      <c r="G46" s="4">
-        <v>274.2919927170903</v>
+      <c r="B46" s="3">
+        <v>178.82810557431139</v>
+      </c>
+      <c r="C46" s="3">
+        <v>73.22459727099087</v>
+      </c>
+      <c r="D46" s="3">
+        <v>32.69465485651773</v>
+      </c>
+      <c r="E46" s="3">
+        <v>73.538085928013913</v>
+      </c>
+      <c r="F46" s="3">
+        <v>164.8984532662767</v>
+      </c>
+      <c r="G46" s="5">
+        <v>523.18389689611058</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2193,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>6</v>
-      </c>
-      <c r="K46" s="4">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1</v>
       </c>
       <c r="L46" t="s">
         <v>12</v>
@@ -2221,7 +2222,7 @@
       <c r="F47" s="3">
         <v>11.752361111237381</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="5">
         <v>251.35842360019291</v>
       </c>
       <c r="H47">
@@ -2259,7 +2260,7 @@
       <c r="F48" s="3">
         <v>5.0725201993002367</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="5">
         <v>297.79297797286148</v>
       </c>
       <c r="H48">
@@ -2297,7 +2298,7 @@
       <c r="F49" s="3">
         <v>3.4438500641397809</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="5">
         <v>519.7167293209252</v>
       </c>
       <c r="H49">
@@ -2335,7 +2336,7 @@
       <c r="F50" s="3">
         <v>901.39351969555855</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="5">
         <v>15623.95348775503</v>
       </c>
       <c r="H50">
@@ -2355,9 +2356,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K56">
-    <sortCondition ref="B2:B56"/>
-    <sortCondition ref="F2:F56"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L50">
+    <sortCondition ref="K2:K50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
